--- a/labels/NDPI_labels.xlsx
+++ b/labels/NDPI_labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\大学课程资料\BigAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5713A0B2-685C-4489-AB39-1CE1207C8305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD45A57B-9033-4DCD-8637-D12E53D0559C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="293">
   <si>
     <t>姓名</t>
   </si>
@@ -812,6 +812,111 @@
   <si>
     <t>S202227668</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F201500995</t>
+  </si>
+  <si>
+    <t>F201801819</t>
+  </si>
+  <si>
+    <t>F201803652</t>
+  </si>
+  <si>
+    <t>J202218846</t>
+  </si>
+  <si>
+    <t>S201802801</t>
+  </si>
+  <si>
+    <t>S201814396</t>
+  </si>
+  <si>
+    <t>S201815808</t>
+  </si>
+  <si>
+    <t>S201824676</t>
+  </si>
+  <si>
+    <t>S201900571</t>
+  </si>
+  <si>
+    <t>S201909068</t>
+  </si>
+  <si>
+    <t>S201912668</t>
+  </si>
+  <si>
+    <t>S201916419</t>
+  </si>
+  <si>
+    <t>S201920273</t>
+  </si>
+  <si>
+    <t>S201929623</t>
+  </si>
+  <si>
+    <t>S201930227</t>
+  </si>
+  <si>
+    <t>S202003784</t>
+  </si>
+  <si>
+    <t>S202017910</t>
+  </si>
+  <si>
+    <t>S202018148</t>
+  </si>
+  <si>
+    <t>S202019226</t>
+  </si>
+  <si>
+    <t>S202019362</t>
+  </si>
+  <si>
+    <t>S202109623</t>
+  </si>
+  <si>
+    <t>S202114337</t>
+  </si>
+  <si>
+    <t>S202114339</t>
+  </si>
+  <si>
+    <t>S202119491</t>
+  </si>
+  <si>
+    <t>S202125932</t>
+  </si>
+  <si>
+    <t>S202129002</t>
+  </si>
+  <si>
+    <t>S202201585</t>
+  </si>
+  <si>
+    <t>S202209824</t>
+  </si>
+  <si>
+    <t>S202210065</t>
+  </si>
+  <si>
+    <t>S202210324</t>
+  </si>
+  <si>
+    <t>S202213810</t>
+  </si>
+  <si>
+    <t>S202215779</t>
+  </si>
+  <si>
+    <t>S202219616</t>
+  </si>
+  <si>
+    <t>S202219622</t>
+  </si>
+  <si>
+    <t>S202220956</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D141"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142:D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2761,6 +2866,358 @@
       </c>
       <c r="D141">
         <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>201460750</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>201511713</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>201511995</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>201545445</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>201566796</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>201720527</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>201730199</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>201731623</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>258</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>259</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>260</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>261</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>262</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>263</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>264</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>265</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>266</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>267</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>268</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>269</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>270</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>271</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>272</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>273</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>274</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>275</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>276</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>277</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>134</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>278</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>279</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>280</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>281</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>282</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>283</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>284</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>285</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>286</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>287</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>288</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>289</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>290</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>291</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>292</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/labels/NDPI_labels.xlsx
+++ b/labels/NDPI_labels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\大学课程资料\BigAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\大学课程资料\BigAI\胃部病理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD45A57B-9033-4DCD-8637-D12E53D0559C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131C124E-1F95-4F72-B824-83979D484F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,24 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="357">
   <si>
     <t>姓名</t>
   </si>
@@ -917,13 +904,210 @@
   </si>
   <si>
     <t>S202220956</t>
+  </si>
+  <si>
+    <t>S201901784</t>
+  </si>
+  <si>
+    <t>S201901788</t>
+  </si>
+  <si>
+    <t>S201907199</t>
+  </si>
+  <si>
+    <t>S201908011</t>
+  </si>
+  <si>
+    <t>S201908651</t>
+  </si>
+  <si>
+    <t>S201909337</t>
+  </si>
+  <si>
+    <t>S201909457</t>
+  </si>
+  <si>
+    <t>S201910753</t>
+  </si>
+  <si>
+    <t>S201910991</t>
+  </si>
+  <si>
+    <t>S201912973</t>
+  </si>
+  <si>
+    <t>S201913468</t>
+  </si>
+  <si>
+    <t>S201913717</t>
+  </si>
+  <si>
+    <t>S201914317</t>
+  </si>
+  <si>
+    <t>S201915305</t>
+  </si>
+  <si>
+    <t>S201915354</t>
+  </si>
+  <si>
+    <t>S201918545</t>
+  </si>
+  <si>
+    <t>S201919592</t>
+  </si>
+  <si>
+    <t>S201922005</t>
+  </si>
+  <si>
+    <t>S201924326</t>
+  </si>
+  <si>
+    <t>S201924470</t>
+  </si>
+  <si>
+    <t>S202000521</t>
+  </si>
+  <si>
+    <t>S202001112</t>
+  </si>
+  <si>
+    <t>S202004481</t>
+  </si>
+  <si>
+    <t>S202007478</t>
+  </si>
+  <si>
+    <t>S202007914</t>
+  </si>
+  <si>
+    <t>S202011771</t>
+  </si>
+  <si>
+    <t>S202012480</t>
+  </si>
+  <si>
+    <t>S202013102</t>
+  </si>
+  <si>
+    <t>S202013455</t>
+  </si>
+  <si>
+    <t>S202015259</t>
+  </si>
+  <si>
+    <t>S202015844</t>
+  </si>
+  <si>
+    <t>S202111675</t>
+  </si>
+  <si>
+    <t>S202115960</t>
+  </si>
+  <si>
+    <t>S202122165</t>
+  </si>
+  <si>
+    <t>S202122436</t>
+  </si>
+  <si>
+    <t>S202122553</t>
+  </si>
+  <si>
+    <t>S202126630</t>
+  </si>
+  <si>
+    <t>S202126634</t>
+  </si>
+  <si>
+    <t>S202127354</t>
+  </si>
+  <si>
+    <t>S202128998</t>
+  </si>
+  <si>
+    <t>S202129004</t>
+  </si>
+  <si>
+    <t>S202201465</t>
+  </si>
+  <si>
+    <t>S202206251</t>
+  </si>
+  <si>
+    <t>S202208076</t>
+  </si>
+  <si>
+    <t>S202209292</t>
+  </si>
+  <si>
+    <t>S202210054</t>
+  </si>
+  <si>
+    <t>S202210795</t>
+  </si>
+  <si>
+    <t>S202212622</t>
+  </si>
+  <si>
+    <t>S202213601</t>
+  </si>
+  <si>
+    <t>S202214192</t>
+  </si>
+  <si>
+    <t>S202214683</t>
+  </si>
+  <si>
+    <t>S202218838</t>
+  </si>
+  <si>
+    <t>S202218968</t>
+  </si>
+  <si>
+    <t>S202219477</t>
+  </si>
+  <si>
+    <t>S202220533</t>
+  </si>
+  <si>
+    <t>S202222713</t>
+  </si>
+  <si>
+    <t>S202223883</t>
+  </si>
+  <si>
+    <t>S202228989</t>
+  </si>
+  <si>
+    <t>S202229042</t>
+  </si>
+  <si>
+    <t>201550559</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>201652561</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>201408795</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>201429688</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>201457759</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,6 +1150,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1007,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,11 +1222,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,1917 +1511,2390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142:D185"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="C2">
-        <v>201550559</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="18" t="s">
+        <v>353</v>
+      </c>
       <c r="C3">
-        <v>201652561</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B50" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>99</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="B55" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="B56" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>113</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B60" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>135</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B69" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>137</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B70" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>139</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B71" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>141</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B72" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>145</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="B75" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="B76" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="B78" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="B79" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>157</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B80" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="B81" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="B84" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>167</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B85" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="B86" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="B87" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="B88" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>175</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B89" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>177</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>179</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B91" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="B92" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>185</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B94" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="B95" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="B96" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>191</v>
       </c>
-      <c r="C97" t="s">
+      <c r="B97" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="B100" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="B103" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="B104" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="B105" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="B106" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="B107" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="B108" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>215</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B109" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="B110" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="B111" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>221</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B112" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>227</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B115" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C116" s="11">
-        <v>201408795</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C117" s="11">
-        <v>201429688</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C118" s="11">
-        <v>201457759</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C119" s="11">
+      <c r="B119" s="16">
         <v>201458050</v>
       </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="11">
+      <c r="B120" s="16">
         <v>201511164</v>
       </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>234</v>
       </c>
-      <c r="C121" s="11">
+      <c r="B121" s="16">
         <v>201516373</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C122" s="11">
+      <c r="B122" s="16">
         <v>201521440</v>
       </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>236</v>
       </c>
-      <c r="C123" s="11">
+      <c r="B123" s="16">
         <v>201526046</v>
       </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C124" s="11">
+      <c r="B124" s="16">
         <v>201531587</v>
       </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C125" s="11">
+      <c r="B125" s="16">
         <v>201546010</v>
       </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C126" s="11">
+      <c r="B126" s="16">
         <v>201549455</v>
       </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C127" s="11">
+      <c r="B127" s="16">
         <v>201549943</v>
       </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C128" s="11">
+      <c r="B128" s="16">
         <v>201553382</v>
       </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>242</v>
       </c>
-      <c r="C129" s="11">
+      <c r="B129" s="16">
         <v>201553994</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>243</v>
       </c>
-      <c r="C130" s="11">
+      <c r="B130" s="16">
         <v>201554277</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>244</v>
       </c>
-      <c r="C131" s="11">
+      <c r="B131" s="16">
         <v>201558764</v>
       </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C132" s="11">
+      <c r="B132" s="16">
         <v>201559374</v>
       </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C133" s="11">
+      <c r="B133" s="16">
         <v>201563879</v>
       </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>247</v>
       </c>
-      <c r="C134" s="11">
+      <c r="B134" s="16">
         <v>201669312</v>
       </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C135" s="11">
+      <c r="B135" s="16">
         <v>201715296</v>
       </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>249</v>
       </c>
-      <c r="C136" s="11">
+      <c r="B136" s="16">
         <v>201723438</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C137" s="11">
+      <c r="B137" s="16">
         <v>201724085</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C138" s="11">
+      <c r="B138" s="16">
         <v>201726123</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>252</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="B139" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>254</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="B140" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>256</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="B141" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="11">
+        <v>201460750</v>
+      </c>
       <c r="C142">
-        <v>201460750</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="11">
+        <v>201511713</v>
+      </c>
       <c r="C143">
-        <v>201511713</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="11">
+        <v>201511995</v>
+      </c>
       <c r="C144">
-        <v>201511995</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="11">
+        <v>201545445</v>
+      </c>
       <c r="C145">
-        <v>201545445</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="11">
+        <v>201566796</v>
+      </c>
       <c r="C146">
-        <v>201566796</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="11">
+        <v>201720527</v>
+      </c>
       <c r="C147">
-        <v>201720527</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="11">
+        <v>201730199</v>
+      </c>
       <c r="C148">
-        <v>201730199</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="11">
+        <v>201731623</v>
+      </c>
       <c r="C149">
-        <v>201731623</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C164" t="s">
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C165" t="s">
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" t="s">
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C167" t="s">
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C171" t="s">
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C178" t="s">
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C180" t="s">
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C183" t="s">
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D185">
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B186" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C186" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B187" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C187" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B188" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C188" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B189" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C189" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B190" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C190" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B191" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C191" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B192" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C192" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B193" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C193" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B194" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C194" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B195" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C195" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B196" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C196" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B197" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C197" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B198" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C198" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B199" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C199" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B200" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C200" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B201" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C201" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B202" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C202" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B203" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C203" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B204" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C204" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B205" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C205" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B206" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C206" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B207" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C207" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B208" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C208" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B209" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C209" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B210" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C210" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B211" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C211" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B212" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C212" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B213" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C213" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B214" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C214" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B215" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C215" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B216" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C216" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B217" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C217" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B218" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C218" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B219" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C219" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B220" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C220" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B221" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C221" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B222" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C222" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B223" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C223" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B224" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C224" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B225" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C225" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B226" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C226" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B227" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C227" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B228" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C228" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B229" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C229" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B230" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C230" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B231" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C231" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B232" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C232" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B233" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C233" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B234" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C234" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B235" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C235" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B236" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C236" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B237" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C237" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B238" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C238" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B239" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C239" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B240" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C240" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B241" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C241" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B242" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C242" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B243" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C243" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B244" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C244" s="12">
         <v>0</v>
       </c>
     </row>

--- a/labels/NDPI_labels.xlsx
+++ b/labels/NDPI_labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\大学课程资料\BigAI\胃部病理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131C124E-1F95-4F72-B824-83979D484F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA2F818-55B8-4110-A8BF-E53C0CCF0DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="531">
   <si>
     <t>姓名</t>
   </si>
@@ -1101,6 +1101,530 @@
   <si>
     <t>201457759</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方菊梅</t>
+  </si>
+  <si>
+    <t>201731843</t>
+  </si>
+  <si>
+    <t>任国栋</t>
+  </si>
+  <si>
+    <t>201736984</t>
+  </si>
+  <si>
+    <t>许世荣</t>
+  </si>
+  <si>
+    <t>201737644</t>
+  </si>
+  <si>
+    <t>田玉峰</t>
+  </si>
+  <si>
+    <t>201749653</t>
+  </si>
+  <si>
+    <t>吴成海</t>
+  </si>
+  <si>
+    <t>201754761</t>
+  </si>
+  <si>
+    <t>吴永勇</t>
+  </si>
+  <si>
+    <t>201755111</t>
+  </si>
+  <si>
+    <t>赵有珍</t>
+  </si>
+  <si>
+    <t>201757722</t>
+  </si>
+  <si>
+    <t>袁春</t>
+  </si>
+  <si>
+    <t>201763111</t>
+  </si>
+  <si>
+    <t>陈寿凯</t>
+  </si>
+  <si>
+    <t>201768471</t>
+  </si>
+  <si>
+    <t>刘尚来</t>
+  </si>
+  <si>
+    <t>201774668</t>
+  </si>
+  <si>
+    <t>尚渊</t>
+  </si>
+  <si>
+    <t>S201802939</t>
+  </si>
+  <si>
+    <t>高伟春</t>
+  </si>
+  <si>
+    <t>S201803371</t>
+  </si>
+  <si>
+    <t>周风英（多病灶，另一处治愈性切除）</t>
+  </si>
+  <si>
+    <t>S201803766</t>
+  </si>
+  <si>
+    <t>丁少举</t>
+  </si>
+  <si>
+    <t>S201804812</t>
+  </si>
+  <si>
+    <t>张子江</t>
+  </si>
+  <si>
+    <t>S201805861</t>
+  </si>
+  <si>
+    <t>孙立忠</t>
+  </si>
+  <si>
+    <t>S201807936</t>
+  </si>
+  <si>
+    <t>戴永寿</t>
+  </si>
+  <si>
+    <t>S201811839</t>
+  </si>
+  <si>
+    <t>谢文平 未追加手术，每年复查胃镜，未见明显异常</t>
+  </si>
+  <si>
+    <t>S201812856</t>
+  </si>
+  <si>
+    <t>张力</t>
+  </si>
+  <si>
+    <t>S201814116</t>
+  </si>
+  <si>
+    <t>钮静安 2021-06-17泰州市人民医院贲门ESD术后、食管ESD 上皮内瘤变</t>
+  </si>
+  <si>
+    <t>S201814120</t>
+  </si>
+  <si>
+    <t>沈凤权（多病灶，但另一个是治愈性切除）</t>
+  </si>
+  <si>
+    <t>S201815146</t>
+  </si>
+  <si>
+    <t>秦广发 2018-09-13 外科切除，2021-05-24胃镜示胃窦前壁一息肉样隆起，病理提示高级别上皮内流变，2021-06-09省人民ESD</t>
+  </si>
+  <si>
+    <t>S201816355</t>
+  </si>
+  <si>
+    <t>方萍</t>
+  </si>
+  <si>
+    <t>S201818257</t>
+  </si>
+  <si>
+    <t>邹定邦 术后没有追加外科，年度复查胃镜、CT未见异常</t>
+  </si>
+  <si>
+    <t>S201819762</t>
+  </si>
+  <si>
+    <t>张如海 未手术，规律复查，无复发及转移</t>
+  </si>
+  <si>
+    <t>S201822053</t>
+  </si>
+  <si>
+    <t>盛学友</t>
+  </si>
+  <si>
+    <t>S201822675</t>
+  </si>
+  <si>
+    <t>姚来根</t>
+  </si>
+  <si>
+    <t>S201824025</t>
+  </si>
+  <si>
+    <t>王珍</t>
+  </si>
+  <si>
+    <t>S201824925</t>
+  </si>
+  <si>
+    <t>杨翠芳</t>
+  </si>
+  <si>
+    <t>S201901291</t>
+  </si>
+  <si>
+    <t>陈家来</t>
+  </si>
+  <si>
+    <t>S201902305</t>
+  </si>
+  <si>
+    <t>葛桂华</t>
+  </si>
+  <si>
+    <t>S201902841</t>
+  </si>
+  <si>
+    <t>陈国华</t>
+  </si>
+  <si>
+    <t>S201904185</t>
+  </si>
+  <si>
+    <t>杨显翠</t>
+  </si>
+  <si>
+    <t>S201905040</t>
+  </si>
+  <si>
+    <t>潘夕泉</t>
+  </si>
+  <si>
+    <t>S201905542</t>
+  </si>
+  <si>
+    <t>杨荣华</t>
+  </si>
+  <si>
+    <t>S201905913</t>
+  </si>
+  <si>
+    <t>李在顺（多病灶，但另一个是治愈性切除）</t>
+  </si>
+  <si>
+    <t>S201906370</t>
+  </si>
+  <si>
+    <t>徐顺林</t>
+  </si>
+  <si>
+    <t>S201907546</t>
+  </si>
+  <si>
+    <t>黄介如</t>
+  </si>
+  <si>
+    <t>S201907677</t>
+  </si>
+  <si>
+    <t>顾吉春</t>
+  </si>
+  <si>
+    <t>S201908072</t>
+  </si>
+  <si>
+    <t>张子凤</t>
+  </si>
+  <si>
+    <t>S201912731</t>
+  </si>
+  <si>
+    <t>施玉昌</t>
+  </si>
+  <si>
+    <t>S201914355</t>
+  </si>
+  <si>
+    <t>孙卫财</t>
+  </si>
+  <si>
+    <t>S201916223</t>
+  </si>
+  <si>
+    <t>曹春红</t>
+  </si>
+  <si>
+    <t>S201916818</t>
+  </si>
+  <si>
+    <t>蒋荣雷</t>
+  </si>
+  <si>
+    <t>S201919977</t>
+  </si>
+  <si>
+    <t>李裕祥</t>
+  </si>
+  <si>
+    <t>S201920874</t>
+  </si>
+  <si>
+    <t>居祥平</t>
+  </si>
+  <si>
+    <t>S201921402</t>
+  </si>
+  <si>
+    <t>杨国怀</t>
+  </si>
+  <si>
+    <t>S201923025</t>
+  </si>
+  <si>
+    <t>汪丽</t>
+  </si>
+  <si>
+    <t>S201923489</t>
+  </si>
+  <si>
+    <t>史美琴</t>
+  </si>
+  <si>
+    <t>S201925622</t>
+  </si>
+  <si>
+    <t>彭利国</t>
+  </si>
+  <si>
+    <t>S201929427</t>
+  </si>
+  <si>
+    <t>徐水根</t>
+  </si>
+  <si>
+    <t>S201930394</t>
+  </si>
+  <si>
+    <t>朱荣</t>
+  </si>
+  <si>
+    <t>S202000187</t>
+  </si>
+  <si>
+    <t>吴华英</t>
+  </si>
+  <si>
+    <t>S202000190</t>
+  </si>
+  <si>
+    <t>尹菊芝</t>
+  </si>
+  <si>
+    <t>S202000677</t>
+  </si>
+  <si>
+    <t>严旺贤</t>
+  </si>
+  <si>
+    <t>S202001156</t>
+  </si>
+  <si>
+    <t>王思春</t>
+  </si>
+  <si>
+    <t>S202003626</t>
+  </si>
+  <si>
+    <t>陶宁亚</t>
+  </si>
+  <si>
+    <t>S202026521</t>
+  </si>
+  <si>
+    <t>季淼根（多病灶，另一个治愈，2022/09/01门诊病历提示骨转移、淋巴结转移）</t>
+  </si>
+  <si>
+    <t>S202100876</t>
+  </si>
+  <si>
+    <t>倪同兆</t>
+  </si>
+  <si>
+    <t>S202109408</t>
+  </si>
+  <si>
+    <t>王学锋</t>
+  </si>
+  <si>
+    <t>J202118714</t>
+  </si>
+  <si>
+    <t>汤忠元</t>
+  </si>
+  <si>
+    <t>J202120088</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>马良胜</t>
+  </si>
+  <si>
+    <t>S202123034</t>
+  </si>
+  <si>
+    <t>张怀鸾</t>
+  </si>
+  <si>
+    <t>S202124127</t>
+  </si>
+  <si>
+    <t>杨贤勇</t>
+  </si>
+  <si>
+    <t>S202125717</t>
+  </si>
+  <si>
+    <t>胡荣堂</t>
+  </si>
+  <si>
+    <t>S202126964</t>
+  </si>
+  <si>
+    <t>张崇华</t>
+  </si>
+  <si>
+    <t>S202127538</t>
+  </si>
+  <si>
+    <t>罗竞城</t>
+  </si>
+  <si>
+    <t>S202127947</t>
+  </si>
+  <si>
+    <t>王盛娥</t>
+  </si>
+  <si>
+    <t>S202128367</t>
+  </si>
+  <si>
+    <t>马荣</t>
+  </si>
+  <si>
+    <t>S202129047</t>
+  </si>
+  <si>
+    <t>方道成</t>
+  </si>
+  <si>
+    <t>S202200912</t>
+  </si>
+  <si>
+    <t>柏运早</t>
+  </si>
+  <si>
+    <t>S202202317</t>
+  </si>
+  <si>
+    <t>张立才（多病灶，另一个治愈）</t>
+  </si>
+  <si>
+    <t>S202203907</t>
+  </si>
+  <si>
+    <t>王行美</t>
+  </si>
+  <si>
+    <t>S202204257</t>
+  </si>
+  <si>
+    <t>徐生荣</t>
+  </si>
+  <si>
+    <t>S202207245</t>
+  </si>
+  <si>
+    <t>魏巍</t>
+  </si>
+  <si>
+    <t>S202208026</t>
+  </si>
+  <si>
+    <t>庄建福</t>
+  </si>
+  <si>
+    <t>S202210859</t>
+  </si>
+  <si>
+    <t>徐宝朝</t>
+  </si>
+  <si>
+    <t>S202212021</t>
+  </si>
+  <si>
+    <t>黄民</t>
+  </si>
+  <si>
+    <t>S202214140</t>
+  </si>
+  <si>
+    <t>王栋</t>
+  </si>
+  <si>
+    <t>J202216604</t>
+  </si>
+  <si>
+    <t>潘顶如</t>
+  </si>
+  <si>
+    <t>S202218520</t>
+  </si>
+  <si>
+    <t>戴美香</t>
+  </si>
+  <si>
+    <t>J202220426</t>
+  </si>
+  <si>
+    <t>沈九一</t>
+  </si>
+  <si>
+    <t>S202220887</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢明芳</t>
+  </si>
+  <si>
+    <t>S202221851</t>
+  </si>
+  <si>
+    <t>陈康荣</t>
+  </si>
+  <si>
+    <t>S202225716</t>
+  </si>
+  <si>
+    <t>厉先英</t>
+  </si>
+  <si>
+    <t>S202227399</t>
+  </si>
+  <si>
+    <t>王带伢</t>
+  </si>
+  <si>
+    <t>S202227524</t>
+  </si>
+  <si>
+    <t>陈邦友</t>
+  </si>
+  <si>
+    <t>S202227609</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1766,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="I234" sqref="I234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3866,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B241" s="11" t="s">
         <v>348</v>
       </c>
@@ -3874,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B242" s="11" t="s">
         <v>349</v>
       </c>
@@ -3882,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B243" s="11" t="s">
         <v>350</v>
       </c>
@@ -3890,11 +4420,968 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B244" s="11" t="s">
         <v>351</v>
       </c>
       <c r="C244" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>357</v>
+      </c>
+      <c r="B245" t="s">
+        <v>358</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>359</v>
+      </c>
+      <c r="B246" t="s">
+        <v>360</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>361</v>
+      </c>
+      <c r="B247" t="s">
+        <v>362</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>363</v>
+      </c>
+      <c r="B248" t="s">
+        <v>364</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>365</v>
+      </c>
+      <c r="B249" t="s">
+        <v>366</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="B250" t="s">
+        <v>368</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>369</v>
+      </c>
+      <c r="B251" t="s">
+        <v>370</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>371</v>
+      </c>
+      <c r="B252" t="s">
+        <v>372</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>373</v>
+      </c>
+      <c r="B253" t="s">
+        <v>374</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>375</v>
+      </c>
+      <c r="B254" t="s">
+        <v>376</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>377</v>
+      </c>
+      <c r="B255" t="s">
+        <v>378</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>379</v>
+      </c>
+      <c r="B256" t="s">
+        <v>380</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>381</v>
+      </c>
+      <c r="B257" t="s">
+        <v>382</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>383</v>
+      </c>
+      <c r="B258" t="s">
+        <v>384</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>385</v>
+      </c>
+      <c r="B259" t="s">
+        <v>386</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>387</v>
+      </c>
+      <c r="B260" t="s">
+        <v>388</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>389</v>
+      </c>
+      <c r="B261" t="s">
+        <v>390</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>391</v>
+      </c>
+      <c r="B262" t="s">
+        <v>392</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>393</v>
+      </c>
+      <c r="B263" t="s">
+        <v>394</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>395</v>
+      </c>
+      <c r="B264" t="s">
+        <v>396</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>397</v>
+      </c>
+      <c r="B265" t="s">
+        <v>398</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>399</v>
+      </c>
+      <c r="B266" t="s">
+        <v>400</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>401</v>
+      </c>
+      <c r="B267" t="s">
+        <v>402</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>403</v>
+      </c>
+      <c r="B268" t="s">
+        <v>404</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>405</v>
+      </c>
+      <c r="B269" t="s">
+        <v>406</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>407</v>
+      </c>
+      <c r="B270" t="s">
+        <v>408</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>409</v>
+      </c>
+      <c r="B271" t="s">
+        <v>410</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>411</v>
+      </c>
+      <c r="B272" t="s">
+        <v>412</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>413</v>
+      </c>
+      <c r="B273" t="s">
+        <v>414</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>415</v>
+      </c>
+      <c r="B274" t="s">
+        <v>416</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>417</v>
+      </c>
+      <c r="B275" t="s">
+        <v>418</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>419</v>
+      </c>
+      <c r="B276" t="s">
+        <v>420</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>421</v>
+      </c>
+      <c r="B277" t="s">
+        <v>422</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>423</v>
+      </c>
+      <c r="B278" t="s">
+        <v>424</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>425</v>
+      </c>
+      <c r="B279" t="s">
+        <v>426</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>427</v>
+      </c>
+      <c r="B280" t="s">
+        <v>428</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>429</v>
+      </c>
+      <c r="B281" t="s">
+        <v>430</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>431</v>
+      </c>
+      <c r="B282" t="s">
+        <v>432</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>433</v>
+      </c>
+      <c r="B283" t="s">
+        <v>434</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>435</v>
+      </c>
+      <c r="B284" t="s">
+        <v>436</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>437</v>
+      </c>
+      <c r="B285" t="s">
+        <v>438</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>439</v>
+      </c>
+      <c r="B286" t="s">
+        <v>440</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>441</v>
+      </c>
+      <c r="B287" t="s">
+        <v>442</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>443</v>
+      </c>
+      <c r="B288" t="s">
+        <v>444</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>445</v>
+      </c>
+      <c r="B289" t="s">
+        <v>446</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>447</v>
+      </c>
+      <c r="B290" t="s">
+        <v>448</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>449</v>
+      </c>
+      <c r="B291" t="s">
+        <v>450</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>451</v>
+      </c>
+      <c r="B292" t="s">
+        <v>452</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>453</v>
+      </c>
+      <c r="B293" t="s">
+        <v>454</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>455</v>
+      </c>
+      <c r="B294" t="s">
+        <v>456</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>457</v>
+      </c>
+      <c r="B295" t="s">
+        <v>458</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>459</v>
+      </c>
+      <c r="B296" t="s">
+        <v>460</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>461</v>
+      </c>
+      <c r="B297" t="s">
+        <v>462</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>463</v>
+      </c>
+      <c r="B298" t="s">
+        <v>464</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>465</v>
+      </c>
+      <c r="B299" t="s">
+        <v>466</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C300" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>469</v>
+      </c>
+      <c r="B301" t="s">
+        <v>470</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>471</v>
+      </c>
+      <c r="B302" t="s">
+        <v>472</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>473</v>
+      </c>
+      <c r="B303" t="s">
+        <v>474</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>475</v>
+      </c>
+      <c r="B304" t="s">
+        <v>476</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>477</v>
+      </c>
+      <c r="B305" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>479</v>
+      </c>
+      <c r="B306" t="s">
+        <v>480</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>481</v>
+      </c>
+      <c r="B307" t="s">
+        <v>482</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>483</v>
+      </c>
+      <c r="B308" t="s">
+        <v>484</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>485</v>
+      </c>
+      <c r="B309" t="s">
+        <v>486</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>487</v>
+      </c>
+      <c r="B310" t="s">
+        <v>488</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>489</v>
+      </c>
+      <c r="B311" t="s">
+        <v>490</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>491</v>
+      </c>
+      <c r="B312" t="s">
+        <v>492</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>493</v>
+      </c>
+      <c r="B313" t="s">
+        <v>494</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>495</v>
+      </c>
+      <c r="B314" t="s">
+        <v>496</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>497</v>
+      </c>
+      <c r="B315" t="s">
+        <v>498</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>499</v>
+      </c>
+      <c r="B316" t="s">
+        <v>500</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>501</v>
+      </c>
+      <c r="B317" t="s">
+        <v>502</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>503</v>
+      </c>
+      <c r="B318" t="s">
+        <v>504</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>505</v>
+      </c>
+      <c r="B319" t="s">
+        <v>506</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>507</v>
+      </c>
+      <c r="B320" t="s">
+        <v>508</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>509</v>
+      </c>
+      <c r="B321" t="s">
+        <v>510</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>511</v>
+      </c>
+      <c r="B322" t="s">
+        <v>512</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>513</v>
+      </c>
+      <c r="B323" t="s">
+        <v>514</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>515</v>
+      </c>
+      <c r="B324" t="s">
+        <v>516</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>517</v>
+      </c>
+      <c r="B325" t="s">
+        <v>518</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>519</v>
+      </c>
+      <c r="B326" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>521</v>
+      </c>
+      <c r="B327" t="s">
+        <v>522</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>523</v>
+      </c>
+      <c r="B328" t="s">
+        <v>524</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>525</v>
+      </c>
+      <c r="B329" t="s">
+        <v>526</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>527</v>
+      </c>
+      <c r="B330" t="s">
+        <v>528</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>529</v>
+      </c>
+      <c r="B331" t="s">
+        <v>530</v>
+      </c>
+      <c r="C331">
         <v>0</v>
       </c>
     </row>
